--- a/RestAssuredDataDrivenFramework/src/main/java/testData/Data.xlsx
+++ b/RestAssuredDataDrivenFramework/src/main/java/testData/Data.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15972" windowHeight="4740" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="4740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Circuits" sheetId="1" r:id="rId1"/>
     <sheet name="Locations" sheetId="2" r:id="rId2"/>
-    <sheet name="StudentApp" sheetId="3" r:id="rId3"/>
+    <sheet name="Students" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E15"/>
+  <oleSize ref="A1:J14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>location</t>
   </si>
@@ -255,12 +255,15 @@
     <t>Harper</t>
   </si>
   <si>
-    <t>egestas.rhoncus.Prioin@massaQuisqueporttitor.org</t>
-  </si>
-  <si>
     <t>Financial Analysis</t>
   </si>
   <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>egestas.rhoncus.Proin@massaQuisqueporttitor.org</t>
+  </si>
+  <si>
     <t>Murphy</t>
   </si>
   <si>
@@ -270,15 +273,6 @@
     <t>faucibus.orci.luctus@Duisac.net</t>
   </si>
   <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>ComputerScience</t>
-  </si>
-  <si>
     <t>Reece</t>
   </si>
   <si>
@@ -288,73 +282,10 @@
     <t>tincidunt.dui@ultricessit.co.uk</t>
   </si>
   <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
     <t>Calculus</t>
-  </si>
-  <si>
-    <t>Orson</t>
-  </si>
-  <si>
-    <t>Armando</t>
-  </si>
-  <si>
-    <t>nascetur@conguea.com</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>Algorithms</t>
-  </si>
-  <si>
-    <t>Cullen</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>imperdiet.ullamcorper@nonenimMauris.co.uk</t>
-  </si>
-  <si>
-    <t>Disaster Management</t>
-  </si>
-  <si>
-    <t>Disaster Preparedness</t>
-  </si>
-  <si>
-    <t>Rashad</t>
-  </si>
-  <si>
-    <t>vestibulum@ridiculusmus.edu</t>
-  </si>
-  <si>
-    <t>Roth</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>eu.tellus@anuncIn.edu</t>
-  </si>
-  <si>
-    <t>Mechanical Engineering</t>
-  </si>
-  <si>
-    <t>Engineering Analysis I</t>
-  </si>
-  <si>
-    <t>Jermaine</t>
-  </si>
-  <si>
-    <t>Alden</t>
-  </si>
-  <si>
-    <t>scelerisque.sed@senectuset.org</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>Criminal Law</t>
   </si>
 </sst>
 </file>
@@ -415,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,10 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +814,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1111,216 +1038,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F00A3B2-1B6E-4DE9-B0CB-AA8635F2A719}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BCAABE-6A6A-4858-BCC9-800B33564DBB}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" customFormat="1">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" customFormat="1">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
